--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Ramp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H2">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I2">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J2">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.240458</v>
+        <v>0.2287846666666667</v>
       </c>
       <c r="N2">
-        <v>3.721374</v>
+        <v>0.686354</v>
       </c>
       <c r="O2">
-        <v>0.7314599148753498</v>
+        <v>0.2689534993532379</v>
       </c>
       <c r="P2">
-        <v>0.7314599148753498</v>
+        <v>0.268953499353238</v>
       </c>
       <c r="Q2">
-        <v>23.240669497676</v>
+        <v>3.034196089991555</v>
       </c>
       <c r="R2">
-        <v>209.166025479084</v>
+        <v>27.307764809924</v>
       </c>
       <c r="S2">
-        <v>0.3437342904619063</v>
+        <v>0.105162877276244</v>
       </c>
       <c r="T2">
-        <v>0.3437342904619063</v>
+        <v>0.105162877276244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H3">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I3">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J3">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,27 +623,27 @@
         <v>1.366224</v>
       </c>
       <c r="O3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053321</v>
       </c>
       <c r="P3">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053322</v>
       </c>
       <c r="Q3">
-        <v>8.532321783242667</v>
+        <v>6.039728068682666</v>
       </c>
       <c r="R3">
-        <v>76.79089604918401</v>
+        <v>54.357552618144</v>
       </c>
       <c r="S3">
-        <v>0.1261947972044808</v>
+        <v>0.2093322787422513</v>
       </c>
       <c r="T3">
-        <v>0.1261947972044808</v>
+        <v>0.2093322787422514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.55844</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H4">
-        <v>58.67532</v>
+        <v>39.786706</v>
       </c>
       <c r="I4">
-        <v>0.490568851675588</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J4">
-        <v>0.490568851675588</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.240458</v>
+        <v>0.04315</v>
       </c>
       <c r="N4">
-        <v>3.721374</v>
+        <v>0.12945</v>
       </c>
       <c r="O4">
-        <v>0.7314599148753498</v>
+        <v>0.05072605461799107</v>
       </c>
       <c r="P4">
-        <v>0.7314599148753498</v>
+        <v>0.05072605461799109</v>
       </c>
       <c r="Q4">
-        <v>24.26142336552</v>
+        <v>0.5722654546333332</v>
       </c>
       <c r="R4">
-        <v>218.35281028968</v>
+        <v>5.1503890917</v>
       </c>
       <c r="S4">
-        <v>0.3588314504871237</v>
+        <v>0.01983427569943467</v>
       </c>
       <c r="T4">
-        <v>0.3588314504871237</v>
+        <v>0.01983427569943468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.55844</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H5">
-        <v>58.67532</v>
+        <v>39.786706</v>
       </c>
       <c r="I5">
-        <v>0.490568851675588</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J5">
-        <v>0.490568851675588</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.455408</v>
+        <v>0.123305</v>
       </c>
       <c r="N5">
-        <v>1.366224</v>
+        <v>0.369915</v>
       </c>
       <c r="O5">
-        <v>0.2685400851246502</v>
+        <v>0.1449542564234389</v>
       </c>
       <c r="P5">
-        <v>0.2685400851246502</v>
+        <v>0.144954256423439</v>
       </c>
       <c r="Q5">
-        <v>8.907070043520001</v>
+        <v>1.635299927776666</v>
       </c>
       <c r="R5">
-        <v>80.16363039168</v>
+        <v>14.71769934999</v>
       </c>
       <c r="S5">
-        <v>0.1317374011884643</v>
+        <v>0.05667822398884802</v>
       </c>
       <c r="T5">
-        <v>0.1317374011884643</v>
+        <v>0.05667822398884804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.258689333333333</v>
+        <v>19.55844</v>
       </c>
       <c r="H6">
-        <v>3.776068</v>
+        <v>58.67532</v>
       </c>
       <c r="I6">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J6">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.240458</v>
+        <v>0.2287846666666667</v>
       </c>
       <c r="N6">
-        <v>3.721374</v>
+        <v>0.686354</v>
       </c>
       <c r="O6">
-        <v>0.7314599148753498</v>
+        <v>0.2689534993532379</v>
       </c>
       <c r="P6">
-        <v>0.7314599148753498</v>
+        <v>0.268953499353238</v>
       </c>
       <c r="Q6">
-        <v>1.561351253048</v>
+        <v>4.47467117592</v>
       </c>
       <c r="R6">
-        <v>14.052161277432</v>
+        <v>40.27204058328</v>
       </c>
       <c r="S6">
-        <v>0.02309270673901756</v>
+        <v>0.1550886237303572</v>
       </c>
       <c r="T6">
-        <v>0.02309270673901756</v>
+        <v>0.1550886237303573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,22 +841,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.258689333333333</v>
+        <v>19.55844</v>
       </c>
       <c r="H7">
-        <v>3.776068</v>
+        <v>58.67532</v>
       </c>
       <c r="I7">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J7">
-        <v>0.03157070711517098</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,27 +871,27 @@
         <v>1.366224</v>
       </c>
       <c r="O7">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053321</v>
       </c>
       <c r="P7">
-        <v>0.2685400851246502</v>
+        <v>0.5353661896053322</v>
       </c>
       <c r="Q7">
-        <v>0.5732171919146667</v>
+        <v>8.907070043520001</v>
       </c>
       <c r="R7">
-        <v>5.158954727232</v>
+        <v>80.16363039168</v>
       </c>
       <c r="S7">
-        <v>0.008478000376153413</v>
+        <v>0.3087121221226707</v>
       </c>
       <c r="T7">
-        <v>0.008478000376153415</v>
+        <v>0.3087121221226708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3162143333333333</v>
+        <v>19.55844</v>
       </c>
       <c r="H8">
-        <v>0.9486429999999999</v>
+        <v>58.67532</v>
       </c>
       <c r="I8">
-        <v>0.007931353542853873</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J8">
-        <v>0.007931353542853873</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.240458</v>
+        <v>0.04315</v>
       </c>
       <c r="N8">
-        <v>3.721374</v>
+        <v>0.12945</v>
       </c>
       <c r="O8">
-        <v>0.7314599148753498</v>
+        <v>0.05072605461799107</v>
       </c>
       <c r="P8">
-        <v>0.7314599148753498</v>
+        <v>0.05072605461799109</v>
       </c>
       <c r="Q8">
-        <v>0.392250599498</v>
+        <v>0.8439466860000001</v>
       </c>
       <c r="R8">
-        <v>3.530255395482</v>
+        <v>7.595520174000001</v>
       </c>
       <c r="S8">
-        <v>0.005801467187302198</v>
+        <v>0.02925053593611276</v>
       </c>
       <c r="T8">
-        <v>0.005801467187302198</v>
+        <v>0.02925053593611277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.55844</v>
+      </c>
+      <c r="H9">
+        <v>58.67532</v>
+      </c>
+      <c r="I9">
+        <v>0.5766373150128344</v>
+      </c>
+      <c r="J9">
+        <v>0.5766373150128344</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.123305</v>
+      </c>
+      <c r="N9">
+        <v>0.369915</v>
+      </c>
+      <c r="O9">
+        <v>0.1449542564234389</v>
+      </c>
+      <c r="P9">
+        <v>0.144954256423439</v>
+      </c>
+      <c r="Q9">
+        <v>2.4116534442</v>
+      </c>
+      <c r="R9">
+        <v>21.7048809978</v>
+      </c>
+      <c r="S9">
+        <v>0.08358603322369373</v>
+      </c>
+      <c r="T9">
+        <v>0.08358603322369375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8919193333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.675758</v>
+      </c>
+      <c r="I10">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="J10">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2287846666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.686354</v>
+      </c>
+      <c r="O10">
+        <v>0.2689534993532379</v>
+      </c>
+      <c r="P10">
+        <v>0.268953499353238</v>
+      </c>
+      <c r="Q10">
+        <v>0.2040574673702222</v>
+      </c>
+      <c r="R10">
+        <v>1.836517206332</v>
+      </c>
+      <c r="S10">
+        <v>0.007072473156609851</v>
+      </c>
+      <c r="T10">
+        <v>0.007072473156609855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8919193333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.675758</v>
+      </c>
+      <c r="I11">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="J11">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.3162143333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.9486429999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="J9">
-        <v>0.007931353542853873</v>
-      </c>
-      <c r="K9">
+      <c r="M11">
+        <v>0.455408</v>
+      </c>
+      <c r="N11">
+        <v>1.366224</v>
+      </c>
+      <c r="O11">
+        <v>0.5353661896053321</v>
+      </c>
+      <c r="P11">
+        <v>0.5353661896053322</v>
+      </c>
+      <c r="Q11">
+        <v>0.4061871997546667</v>
+      </c>
+      <c r="R11">
+        <v>3.655684797792</v>
+      </c>
+      <c r="S11">
+        <v>0.01407813251749992</v>
+      </c>
+      <c r="T11">
+        <v>0.01407813251749992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8919193333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.675758</v>
+      </c>
+      <c r="I12">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="J12">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04315</v>
+      </c>
+      <c r="N12">
+        <v>0.12945</v>
+      </c>
+      <c r="O12">
+        <v>0.05072605461799107</v>
+      </c>
+      <c r="P12">
+        <v>0.05072605461799109</v>
+      </c>
+      <c r="Q12">
+        <v>0.03848631923333334</v>
+      </c>
+      <c r="R12">
+        <v>0.3463768731</v>
+      </c>
+      <c r="S12">
+        <v>0.001333905900050332</v>
+      </c>
+      <c r="T12">
+        <v>0.001333905900050332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8919193333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.675758</v>
+      </c>
+      <c r="I13">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="J13">
+        <v>0.02629626747232247</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.123305</v>
+      </c>
+      <c r="N13">
+        <v>0.369915</v>
+      </c>
+      <c r="O13">
+        <v>0.1449542564234389</v>
+      </c>
+      <c r="P13">
+        <v>0.144954256423439</v>
+      </c>
+      <c r="Q13">
+        <v>0.1099781133966667</v>
+      </c>
+      <c r="R13">
+        <v>0.98980302057</v>
+      </c>
+      <c r="S13">
+        <v>0.003811755898162367</v>
+      </c>
+      <c r="T13">
+        <v>0.003811755898162368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
+      <c r="G14">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J14">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2287846666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.686354</v>
+      </c>
+      <c r="O14">
+        <v>0.2689534993532379</v>
+      </c>
+      <c r="P14">
+        <v>0.268953499353238</v>
+      </c>
+      <c r="Q14">
+        <v>0.04701563030777779</v>
+      </c>
+      <c r="R14">
+        <v>0.4231406727700001</v>
+      </c>
+      <c r="S14">
+        <v>0.00162952519002681</v>
+      </c>
+      <c r="T14">
+        <v>0.001629525190026811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J15">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
         <v>0.455408</v>
       </c>
-      <c r="N9">
+      <c r="N15">
         <v>1.366224</v>
       </c>
-      <c r="O9">
-        <v>0.2685400851246502</v>
-      </c>
-      <c r="P9">
-        <v>0.2685400851246502</v>
-      </c>
-      <c r="Q9">
-        <v>0.1440065371146667</v>
-      </c>
-      <c r="R9">
-        <v>1.296058834032</v>
-      </c>
-      <c r="S9">
-        <v>0.002129886355551675</v>
-      </c>
-      <c r="T9">
-        <v>0.002129886355551675</v>
+      <c r="O15">
+        <v>0.5353661896053321</v>
+      </c>
+      <c r="P15">
+        <v>0.5353661896053322</v>
+      </c>
+      <c r="Q15">
+        <v>0.09358710301333335</v>
+      </c>
+      <c r="R15">
+        <v>0.8422839271200002</v>
+      </c>
+      <c r="S15">
+        <v>0.003243656222910027</v>
+      </c>
+      <c r="T15">
+        <v>0.003243656222910028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J16">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04315</v>
+      </c>
+      <c r="N16">
+        <v>0.12945</v>
+      </c>
+      <c r="O16">
+        <v>0.05072605461799107</v>
+      </c>
+      <c r="P16">
+        <v>0.05072605461799109</v>
+      </c>
+      <c r="Q16">
+        <v>0.008867396916666668</v>
+      </c>
+      <c r="R16">
+        <v>0.07980657225000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0003073370823932993</v>
+      </c>
+      <c r="T16">
+        <v>0.0003073370823932994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2055016666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.6165050000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.006058761808064916</v>
+      </c>
+      <c r="J17">
+        <v>0.006058761808064917</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.123305</v>
+      </c>
+      <c r="N17">
+        <v>0.369915</v>
+      </c>
+      <c r="O17">
+        <v>0.1449542564234389</v>
+      </c>
+      <c r="P17">
+        <v>0.144954256423439</v>
+      </c>
+      <c r="Q17">
+        <v>0.02533938300833334</v>
+      </c>
+      <c r="R17">
+        <v>0.228054447075</v>
+      </c>
+      <c r="S17">
+        <v>0.0008782433127347804</v>
+      </c>
+      <c r="T17">
+        <v>0.0008782433127347807</v>
       </c>
     </row>
   </sheetData>
